--- a/xlsx/西班牙语维基百科_intext.xlsx
+++ b/xlsx/西班牙语维基百科_intext.xlsx
@@ -15,161 +15,164 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="444">
   <si>
     <t>西班牙语维基百科</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>维基百科</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_西班牙语维基百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%88%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%87%9F%E5%88%A9%E7%B5%84%E7%B9%94</t>
+  </si>
+  <si>
+    <t>非营利组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
+  </si>
+  <si>
+    <t>维基媒体基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E5%90%8D</t>
+  </si>
+  <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%9B%AE</t>
+  </si>
+  <si>
+    <t>条目</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2005%E5%B9%B45%E6%9C%88</t>
+  </si>
+  <si>
+    <t>2005年5月</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>葡萄牙语维基百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2005%E5%B9%B48%E6%9C%88</t>
+  </si>
+  <si>
+    <t>2005年8月</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>意大利语维基百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>瑞典语维基百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B46%E6%9C%88</t>
+  </si>
+  <si>
+    <t>2012年6月</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>哥伦比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
+  </si>
+  <si>
+    <t>委内瑞拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>乌拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>厄瓜多尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E7%90%86%E4%BD%BF%E7%94%A8</t>
+  </si>
+  <si>
+    <t>合理使用</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>維基百科</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_西班牙语维基百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>西班牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%88%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>版本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%87%9F%E5%88%A9%E7%B5%84%E7%B9%94</t>
-  </si>
-  <si>
-    <t>非營利組織</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
-  </si>
-  <si>
-    <t>維基媒體基金會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E5%90%8D</t>
-  </si>
-  <si>
-    <t>排名</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%9B%AE</t>
-  </si>
-  <si>
-    <t>條目</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2005%E5%B9%B45%E6%9C%88</t>
-  </si>
-  <si>
-    <t>2005年5月</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>葡萄牙語維基百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2005%E5%B9%B48%E6%9C%88</t>
-  </si>
-  <si>
-    <t>2005年8月</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>意大利語維基百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>瑞典語維基百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B46%E6%9C%88</t>
-  </si>
-  <si>
-    <t>2012年6月</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
-  </si>
-  <si>
-    <t>委內瑞拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E7%90%86%E4%BD%BF%E7%94%A8</t>
-  </si>
-  <si>
-    <t>合理使用</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
@@ -179,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>日語維基百科</t>
+    <t>日语维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Wikipedia_editions</t>
@@ -191,13 +194,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>维基百科</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>英語維基百科</t>
+    <t>英语维基百科</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BF%E9%9C%A7%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>宿霧語維基百科</t>
+    <t>宿雾语维基百科</t>
   </si>
   <si>
     <t>https://ceb.wikipedia.org/wiki/</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>德語維基百科</t>
+    <t>德语维基百科</t>
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>法語維基百科</t>
+    <t>法语维基百科</t>
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>荷蘭語維基百科</t>
+    <t>荷兰语维基百科</t>
   </si>
   <si>
     <t>https://nl.wikipedia.org/wiki/</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>俄語維基百科</t>
+    <t>俄语维基百科</t>
   </si>
   <si>
     <t>https://ru.wikipedia.org/wiki/</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%91%9E%E7%93%A6%E7%91%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>瓦瑞瓦瑞語維基百科</t>
+    <t>瓦瑞瓦瑞语维基百科</t>
   </si>
   <si>
     <t>https://war.wikipedia.org/wiki/</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>波蘭語維基百科</t>
+    <t>波兰语维基百科</t>
   </si>
   <si>
     <t>https://pl.wikipedia.org/wiki/</t>
@@ -329,9 +329,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AF%AD%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>葡萄牙语维基百科</t>
-  </si>
-  <si>
     <t>https://pt.wikipedia.org/wiki/</t>
   </si>
   <si>
@@ -347,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>烏克蘭語維基百科</t>
+    <t>乌克兰语维基百科</t>
   </si>
   <si>
     <t>https://uk.wikipedia.org/wiki/</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>波斯語維基百科</t>
+    <t>波斯语维基百科</t>
   </si>
   <si>
     <t>https://fa.wikipedia.org/wiki/</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>加泰羅尼亞語維基百科</t>
+    <t>加泰罗尼亚语维基百科</t>
   </si>
   <si>
     <t>https://ca.wikipedia.org/wiki/</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>挪威語維基百科</t>
+    <t>挪威语维基百科</t>
   </si>
   <si>
     <t>https://no.wikipedia.org/wiki/</t>
@@ -407,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E-%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>塞爾維亞-克羅埃西亞語維基百科</t>
+    <t>塞尔维亚-克罗埃西亚语维基百科</t>
   </si>
   <si>
     <t>https://sh.wikipedia.org/wiki/</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>匈牙利語維基百科</t>
+    <t>匈牙利语维基百科</t>
   </si>
   <si>
     <t>https://hu.wikipedia.org/wiki/</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>印尼語維基百科</t>
+    <t>印尼语维基百科</t>
   </si>
   <si>
     <t>https://id.wikipedia.org/wiki/</t>
@@ -455,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>韓語維基百科</t>
+    <t>韩语维基百科</t>
   </si>
   <si>
     <t>https://ko.wikipedia.org/wiki/</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>捷克語維基百科</t>
+    <t>捷克语维基百科</t>
   </si>
   <si>
     <t>https://cs.wikipedia.org/wiki/</t>
@@ -491,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>塞爾維亞語維基百科</t>
+    <t>塞尔维亚语维基百科</t>
   </si>
   <si>
     <t>https://sr.wikipedia.org/wiki/</t>
@@ -503,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>馬來語維基百科</t>
+    <t>马来语维基百科</t>
   </si>
   <si>
     <t>https://ms.wikipedia.org/wiki/</t>
@@ -515,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>土耳其語維基百科</t>
+    <t>土耳其语维基百科</t>
   </si>
   <si>
     <t>https://tr.wikipedia.org/wiki/</t>
@@ -527,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>巴斯克語維基百科</t>
+    <t>巴斯克语维基百科</t>
   </si>
   <si>
     <t>https://eu.wikipedia.org/wiki/</t>
@@ -539,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>世界語維基百科</t>
+    <t>世界语维基百科</t>
   </si>
   <si>
     <t>https://eo.wikipedia.org/wiki/</t>
@@ -551,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>保加利亞語維基百科</t>
+    <t>保加利亚语维基百科</t>
   </si>
   <si>
     <t>https://bg.wikipedia.org/wiki/</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>亞美尼亞語維基百科</t>
+    <t>亚美尼亚语维基百科</t>
   </si>
   <si>
     <t>https://hy.wikipedia.org/wiki/</t>
@@ -575,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>丹麥語維基百科</t>
+    <t>丹麦语维基百科</t>
   </si>
   <si>
     <t>https://da.wikipedia.org/wiki/</t>
@@ -587,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>閩南語維基百科</t>
+    <t>闽南语维基百科</t>
   </si>
   <si>
     <t>https://zh-min-nan.wikipedia.org/wiki/</t>
@@ -599,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>斯洛伐克語維基百科</t>
+    <t>斯洛伐克语维基百科</t>
   </si>
   <si>
     <t>https://sk.wikipedia.org/wiki/</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E4%BE%86%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>希伯來語維基百科</t>
+    <t>希伯来语维基百科</t>
   </si>
   <si>
     <t>https://he.wikipedia.org/wiki/</t>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>立陶宛語維基百科</t>
+    <t>立陶宛语维基百科</t>
   </si>
   <si>
     <t>https://lt.wikipedia.org/wiki/</t>
@@ -653,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>克羅埃西亞語維基百科</t>
+    <t>克罗埃西亚语维基百科</t>
   </si>
   <si>
     <t>https://hr.wikipedia.org/wiki/</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>愛沙尼亞語維基百科</t>
+    <t>爱沙尼亚语维基百科</t>
   </si>
   <si>
     <t>https://et.wikipedia.org/wiki/</t>
@@ -689,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>斯洛文尼亞語維基百科</t>
+    <t>斯洛文尼亚语维基百科</t>
   </si>
   <si>
     <t>https://sl.wikipedia.org/wiki/</t>
@@ -701,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>白俄羅斯語維基百科</t>
+    <t>白俄罗斯语维基百科</t>
   </si>
   <si>
     <t>https://be.wikipedia.org/wiki/</t>
@@ -719,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>希臘語維基百科</t>
+    <t>希腊语维基百科</t>
   </si>
   <si>
     <t>https://el.wikipedia.org/wiki/</t>
@@ -731,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%8C%AA%E5%A8%81%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>新挪威語維基百科</t>
+    <t>新挪威语维基百科</t>
   </si>
   <si>
     <t>https://nn.wikipedia.org/wiki/</t>
@@ -755,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>阿塞拜疆語維基百科</t>
+    <t>阿塞拜疆语维基百科</t>
   </si>
   <si>
     <t>https://az.wikipedia.org/wiki/</t>
@@ -767,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>烏茲別克語維基百科</t>
+    <t>乌兹别克语维基百科</t>
   </si>
   <si>
     <t>https://uz.wikipedia.org/wiki/</t>
@@ -779,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>拉丁語維基百科</t>
+    <t>拉丁语维基百科</t>
   </si>
   <si>
     <t>https://la.wikipedia.org/wiki/</t>
@@ -803,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>印地語維基百科</t>
+    <t>印地语维基百科</t>
   </si>
   <si>
     <t>https://hi.wikipedia.org/wiki/</t>
@@ -815,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>泰語維基百科</t>
+    <t>泰语维基百科</t>
   </si>
   <si>
     <t>https://th.wikipedia.org/wiki/</t>
@@ -839,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E7%B1%B3%E7%88%BE%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>泰米爾語維基百科</t>
+    <t>泰米尔语维基百科</t>
   </si>
   <si>
     <t>https://ta.wikipedia.org/wiki/</t>
@@ -857,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>馬其頓語維基百科</t>
+    <t>马其顿语维基百科</t>
   </si>
   <si>
     <t>https://mk.wikipedia.org/wiki/</t>
@@ -911,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8B%92%E6%9B%BC%E5%B0%BC%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>阿勒曼尼語維基百科</t>
+    <t>阿勒曼尼语维基百科</t>
   </si>
   <si>
     <t>https://als.wikipedia.org/wiki/</t>
@@ -965,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>孟加拉語維基百科</t>
+    <t>孟加拉语维基百科</t>
   </si>
   <si>
     <t>https://bn.wikipedia.org/wiki/</t>
@@ -989,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>波斯尼亞語維基百科</t>
+    <t>波斯尼亚语维基百科</t>
   </si>
   <si>
     <t>https://bs.wikipedia.org/wiki/</t>
@@ -1061,7 +1058,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A4%9A%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>伊多語維基百科</t>
+    <t>伊多语维基百科</t>
   </si>
   <si>
     <t>https://io.wikipedia.org/wiki/</t>
@@ -1073,7 +1070,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>冰島語維基百科</t>
+    <t>冰岛语维基百科</t>
   </si>
   <si>
     <t>https://is.wikipedia.org/wiki/</t>
@@ -1109,7 +1106,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>盧森堡語維基百科</t>
+    <t>卢森堡语维基百科</t>
   </si>
   <si>
     <t>https://lb.wikipedia.org/wiki/</t>
@@ -1217,7 +1214,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>阿爾巴尼亞語維基百科</t>
+    <t>阿尔巴尼亚语维基百科</t>
   </si>
   <si>
     <t>https://sq.wikipedia.org/wiki/</t>
@@ -1235,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B8%8C%E9%87%8C%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>斯瓦希里語維基百科</t>
+    <t>斯瓦希里语维基百科</t>
   </si>
   <si>
     <t>https://sw.wikipedia.org/wiki/</t>
@@ -1247,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>塔吉克語維基百科</t>
+    <t>塔吉克语维基百科</t>
   </si>
   <si>
     <t>https://tg.wikipedia.org/wiki/</t>
@@ -1259,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A1%94%E7%88%BE%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>塔塔爾語維基百科</t>
+    <t>塔塔尔语维基百科</t>
   </si>
   <si>
     <t>https://tt.wikipedia.org/wiki/</t>
@@ -1283,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E6%96%87%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>粵文維基百科</t>
+    <t>粤文维基百科</t>
   </si>
   <si>
     <t>https://zh-yue.wikipedia.org/wiki/</t>
@@ -1350,15 +1347,6 @@
   </si>
   <si>
     <t>za-</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2138,7 +2126,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -2454,10 +2442,10 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -2480,10 +2468,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2509,13 +2497,13 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
       </c>
-      <c r="F28" t="s">
-        <v>56</v>
-      </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -2538,13 +2526,13 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
       </c>
-      <c r="F29" t="s">
-        <v>58</v>
-      </c>
       <c r="G29" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -2567,13 +2555,13 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -2596,13 +2584,13 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -2625,13 +2613,13 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -2654,10 +2642,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2683,13 +2671,13 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -2712,13 +2700,13 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -2741,13 +2729,13 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -2770,13 +2758,13 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -2799,13 +2787,13 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -2828,10 +2816,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2857,10 +2845,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2886,13 +2874,13 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -2915,13 +2903,13 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
@@ -2944,13 +2932,13 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -2973,13 +2961,13 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
@@ -3002,13 +2990,13 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="G45" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -3031,13 +3019,13 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G46" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -3060,13 +3048,13 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
@@ -3089,13 +3077,13 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
@@ -3118,10 +3106,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3147,13 +3135,13 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G50" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -3176,10 +3164,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3205,13 +3193,13 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G52" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -3234,10 +3222,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="F53" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3263,13 +3251,13 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -3292,10 +3280,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3321,13 +3309,13 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G56" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
@@ -3350,13 +3338,13 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
@@ -3379,13 +3367,13 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -3408,13 +3396,13 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F59" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -3437,10 +3425,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3466,13 +3454,13 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G61" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -3495,10 +3483,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3524,13 +3512,13 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F63" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G63" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -3553,13 +3541,13 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -3582,13 +3570,13 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G65" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -3611,13 +3599,13 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -3640,13 +3628,13 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G67" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -3669,10 +3657,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3698,13 +3686,13 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G69" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
@@ -3727,10 +3715,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3756,13 +3744,13 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G71" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -3785,10 +3773,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3814,13 +3802,13 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -3843,10 +3831,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3872,13 +3860,13 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G75" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -3901,10 +3889,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3930,13 +3918,13 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -3959,10 +3947,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3988,13 +3976,13 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -4017,10 +4005,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4046,13 +4034,13 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G81" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -4075,10 +4063,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4104,13 +4092,13 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -4133,10 +4121,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4162,13 +4150,13 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -4191,10 +4179,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4220,13 +4208,13 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G87" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -4249,10 +4237,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4278,13 +4266,13 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -4307,10 +4295,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4336,10 +4324,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4365,10 +4353,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4394,13 +4382,13 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -4423,10 +4411,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4452,10 +4440,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4481,10 +4469,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4510,10 +4498,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4539,13 +4527,13 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -4568,13 +4556,13 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -4597,13 +4585,13 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -4626,13 +4614,13 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G101" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -4655,13 +4643,13 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G102" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -4684,13 +4672,13 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -4713,13 +4701,13 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -4742,10 +4730,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4771,13 +4759,13 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G106" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -4800,10 +4788,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4829,10 +4817,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G108" t="n">
         <v>9</v>
@@ -4858,10 +4846,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4887,13 +4875,13 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -4916,10 +4904,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4945,13 +4933,13 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G112" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -4974,10 +4962,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5003,13 +4991,13 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G114" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -5032,10 +5020,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5061,13 +5049,13 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -5090,13 +5078,13 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -5119,13 +5107,13 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G118" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -5148,13 +5136,13 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G119" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -5177,13 +5165,13 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -5206,13 +5194,13 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G121" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -5235,10 +5223,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5264,13 +5252,13 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -5293,10 +5281,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5322,13 +5310,13 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -5351,10 +5339,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5380,10 +5368,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5409,10 +5397,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5438,10 +5426,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5467,10 +5455,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5496,13 +5484,13 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G131" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -5525,10 +5513,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5554,13 +5542,13 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -5583,10 +5571,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5612,10 +5600,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G135" t="n">
         <v>5</v>
@@ -5641,10 +5629,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5670,13 +5658,13 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -5699,10 +5687,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5728,13 +5716,13 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -5757,10 +5745,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5786,13 +5774,13 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G141" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -5815,13 +5803,13 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G142" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -5844,13 +5832,13 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -5873,13 +5861,13 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -5902,10 +5890,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5931,13 +5919,13 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G146" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -5960,10 +5948,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5989,13 +5977,13 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -6018,13 +6006,13 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G149" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -6047,13 +6035,13 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G150" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H150" t="s">
         <v>4</v>
@@ -6076,13 +6064,13 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -6105,13 +6093,13 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -6134,13 +6122,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G153" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6163,13 +6151,13 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G154" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -6192,13 +6180,13 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G155" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -6221,13 +6209,13 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -6250,13 +6238,13 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -6279,13 +6267,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G158" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -6308,10 +6296,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6337,13 +6325,13 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>227</v>
+        <v>308</v>
       </c>
       <c r="F160" t="s">
-        <v>228</v>
+        <v>309</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -6366,10 +6354,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6395,10 +6383,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>226</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>227</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6424,10 +6412,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6453,10 +6441,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6482,13 +6470,13 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -6511,10 +6499,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6540,10 +6528,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6569,13 +6557,13 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -6598,13 +6586,13 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -6627,13 +6615,13 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -6656,13 +6644,13 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G171" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -6685,10 +6673,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6714,13 +6702,13 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -6743,13 +6731,13 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G174" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -6772,10 +6760,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6801,13 +6789,13 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G176" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -6830,13 +6818,13 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G177" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -6859,13 +6847,13 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -6888,13 +6876,13 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G179" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -6917,10 +6905,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6946,13 +6934,13 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G181" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -6975,10 +6963,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7004,13 +6992,13 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -7033,10 +7021,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7062,10 +7050,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7091,10 +7079,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7120,13 +7108,13 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G187" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -7149,10 +7137,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7178,13 +7166,13 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -7207,10 +7195,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7236,13 +7224,13 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -7265,10 +7253,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7294,13 +7282,13 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -7323,10 +7311,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7352,13 +7340,13 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -7381,10 +7369,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7410,13 +7398,13 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -7439,13 +7427,13 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G198" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -7468,13 +7456,13 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G199" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -7497,13 +7485,13 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -7526,13 +7514,13 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G201" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -7555,10 +7543,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7584,13 +7572,13 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G203" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -7613,10 +7601,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7642,13 +7630,13 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -7671,13 +7659,13 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G206" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -7700,10 +7688,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7729,13 +7717,13 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -7758,10 +7746,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7787,13 +7775,13 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -7816,10 +7804,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7845,13 +7833,13 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G212" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -7874,13 +7862,13 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G213" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -7903,13 +7891,13 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -7932,13 +7920,13 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G215" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -7961,13 +7949,13 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -7990,13 +7978,13 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>107</v>
+        <v>420</v>
       </c>
       <c r="F217" t="s">
-        <v>108</v>
+        <v>421</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -8019,13 +8007,13 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>107</v>
+        <v>422</v>
       </c>
       <c r="F218" t="s">
-        <v>108</v>
+        <v>423</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -8048,10 +8036,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="F219" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8077,10 +8065,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>421</v>
+        <v>106</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>107</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8106,10 +8094,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>188</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>189</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8135,10 +8123,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8164,10 +8152,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8193,10 +8181,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8222,10 +8210,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8251,13 +8239,13 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G226" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -8280,13 +8268,13 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G227" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -8309,13 +8297,13 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -8338,13 +8326,13 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -8367,10 +8355,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8396,13 +8384,13 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G231" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -8425,10 +8413,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F232" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
